--- a/ALS_data/Log 2016-03-30T02-37-34.466/plots/threadLogger.xlsx
+++ b/ALS_data/Log 2016-03-30T02-37-34.466/plots/threadLogger.xlsx
@@ -22,22 +22,22 @@
     <t>thread name</t>
   </si>
   <si>
-    <t xml:space="preserve"> total move</t>
+    <t>total move</t>
   </si>
   <si>
     <t>alive_time</t>
   </si>
   <si>
-    <t xml:space="preserve">total food count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total poison count </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> total children count</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dna</t>
+    <t>total food count</t>
+  </si>
+  <si>
+    <t>total poison count</t>
+  </si>
+  <si>
+    <t>total children count</t>
+  </si>
+  <si>
+    <t>dna</t>
   </si>
   <si>
     <t>gendar</t>
@@ -52,7 +52,7 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>Thread-85</t>
+    <t>85</t>
   </si>
   <si>
     <t xml:space="preserve"> CCGAGGTCAA</t>
@@ -61,25 +61,25 @@
     <t>female</t>
   </si>
   <si>
-    <t>Thread-66</t>
+    <t>66</t>
   </si>
   <si>
     <t xml:space="preserve"> AGTAACCAGT</t>
   </si>
   <si>
-    <t>Thread-82</t>
+    <t>82</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCACAGAT</t>
   </si>
   <si>
-    <t>Thread-74</t>
+    <t>74</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGAGAGACC</t>
   </si>
   <si>
-    <t>Thread-5</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAGACACGT</t>
@@ -88,664 +88,664 @@
     <t>male</t>
   </si>
   <si>
-    <t>Thread-60</t>
+    <t>60</t>
   </si>
   <si>
     <t xml:space="preserve"> AAATACTAGT</t>
   </si>
   <si>
-    <t>Thread-41</t>
+    <t>41</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGCCCCCG</t>
   </si>
   <si>
-    <t>Thread-77</t>
+    <t>77</t>
   </si>
   <si>
     <t xml:space="preserve"> CATGAACCAC</t>
   </si>
   <si>
-    <t>Thread-26</t>
+    <t>26</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTCCAACGA</t>
   </si>
   <si>
-    <t>Thread-15</t>
+    <t>15</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGCGTACTA</t>
   </si>
   <si>
-    <t>Thread-47</t>
+    <t>47</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAATTATTT</t>
   </si>
   <si>
-    <t>Thread-76</t>
+    <t>76</t>
   </si>
   <si>
     <t xml:space="preserve"> AACTAGGCCG</t>
   </si>
   <si>
-    <t>Thread-38</t>
+    <t>38</t>
   </si>
   <si>
     <t xml:space="preserve"> TTAGAAAATT</t>
   </si>
   <si>
-    <t>Thread-25</t>
+    <t>25</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTAAGTCGA</t>
   </si>
   <si>
-    <t>Thread-58</t>
+    <t>58</t>
   </si>
   <si>
     <t xml:space="preserve"> ACAACTCGTA</t>
   </si>
   <si>
-    <t>Thread-13</t>
+    <t>13</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGATCTACA</t>
   </si>
   <si>
-    <t>Thread-31</t>
+    <t>31</t>
   </si>
   <si>
     <t xml:space="preserve"> CCGAAACAGG</t>
   </si>
   <si>
-    <t>Thread-75</t>
+    <t>75</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGTCTAACA</t>
   </si>
   <si>
-    <t>Thread-28</t>
+    <t>28</t>
   </si>
   <si>
     <t xml:space="preserve"> CGATTCTAAC</t>
   </si>
   <si>
-    <t>Thread-62</t>
+    <t>62</t>
   </si>
   <si>
     <t xml:space="preserve"> GTGCACGCGC</t>
   </si>
   <si>
-    <t>Thread-56</t>
+    <t>56</t>
   </si>
   <si>
     <t xml:space="preserve"> TGACGGGCTC</t>
   </si>
   <si>
-    <t>Thread-59</t>
+    <t>59</t>
   </si>
   <si>
     <t xml:space="preserve"> GATAAATTGC</t>
   </si>
   <si>
-    <t>Thread-70</t>
+    <t>70</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTGGGTCCG</t>
   </si>
   <si>
-    <t>Thread-7</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve"> TCAGTTTTGG</t>
   </si>
   <si>
-    <t>Thread-20</t>
+    <t>20</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGTAAAGG</t>
   </si>
   <si>
-    <t>Thread-55</t>
+    <t>55</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGTCTGAGC</t>
   </si>
   <si>
-    <t>Thread-57</t>
+    <t>57</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGCCGGAAT</t>
   </si>
   <si>
-    <t>Thread-44</t>
+    <t>44</t>
   </si>
   <si>
     <t xml:space="preserve"> TCTGCTCCTA</t>
   </si>
   <si>
-    <t>Thread-9</t>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve"> TAATTAATAA</t>
   </si>
   <si>
-    <t>Thread-16</t>
+    <t>16</t>
   </si>
   <si>
     <t xml:space="preserve"> ACTAGCTACT</t>
   </si>
   <si>
-    <t>Thread-72</t>
+    <t>72</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCTGAGTA</t>
   </si>
   <si>
-    <t>Thread-11</t>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTGGGGCCA</t>
   </si>
   <si>
-    <t>Thread-69</t>
+    <t>69</t>
   </si>
   <si>
     <t xml:space="preserve"> TGTCCCAGTC</t>
   </si>
   <si>
-    <t>Thread-27</t>
+    <t>27</t>
   </si>
   <si>
     <t xml:space="preserve"> CCGTCTCATA</t>
   </si>
   <si>
-    <t>Thread-63</t>
+    <t>63</t>
   </si>
   <si>
     <t xml:space="preserve"> CGGAAGGTCA</t>
   </si>
   <si>
-    <t>Thread-35</t>
+    <t>35</t>
   </si>
   <si>
     <t xml:space="preserve"> GTCCCGCTCA</t>
   </si>
   <si>
-    <t>Thread-68</t>
+    <t>68</t>
   </si>
   <si>
     <t xml:space="preserve"> GCGGGGGAAT</t>
   </si>
   <si>
-    <t>Thread-21</t>
+    <t>21</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCAGGCTTC</t>
   </si>
   <si>
-    <t>Thread-22</t>
+    <t>22</t>
   </si>
   <si>
     <t xml:space="preserve"> CATTTGATTC</t>
   </si>
   <si>
-    <t>Thread-48</t>
+    <t>48</t>
   </si>
   <si>
     <t xml:space="preserve"> CTTTGTTCTC</t>
   </si>
   <si>
-    <t>Thread-43</t>
+    <t>43</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGCACGGTA</t>
   </si>
   <si>
-    <t>Thread-51</t>
+    <t>51</t>
   </si>
   <si>
     <t xml:space="preserve"> ATAACGGATG</t>
   </si>
   <si>
-    <t>Thread-53</t>
+    <t>53</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCTAGATTG</t>
   </si>
   <si>
-    <t>Thread-64</t>
+    <t>64</t>
   </si>
   <si>
     <t xml:space="preserve"> TCATTTCATT</t>
   </si>
   <si>
-    <t>Thread-45</t>
+    <t>45</t>
   </si>
   <si>
     <t xml:space="preserve"> CCAGTGCGCT</t>
   </si>
   <si>
-    <t>Thread-37</t>
+    <t>37</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTTTAGCG</t>
   </si>
   <si>
-    <t>Thread-52</t>
+    <t>52</t>
   </si>
   <si>
     <t xml:space="preserve"> TGCCCTAGTT</t>
   </si>
   <si>
-    <t>Thread-67</t>
+    <t>67</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGCGCGATA</t>
   </si>
   <si>
-    <t>Thread-30</t>
+    <t>30</t>
   </si>
   <si>
     <t xml:space="preserve"> CGTAGACTAG</t>
   </si>
   <si>
-    <t>Thread-33</t>
+    <t>33</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCCATTAAT</t>
   </si>
   <si>
-    <t>Thread-29</t>
+    <t>29</t>
   </si>
   <si>
     <t xml:space="preserve"> TAACCTAGTT</t>
   </si>
   <si>
-    <t>Thread-87</t>
+    <t>87</t>
   </si>
   <si>
     <t xml:space="preserve"> AATAGGAAAT</t>
   </si>
   <si>
-    <t>Thread-88</t>
+    <t>88</t>
   </si>
   <si>
     <t xml:space="preserve"> CATAAGTACG</t>
   </si>
   <si>
-    <t>Thread-89</t>
+    <t>89</t>
   </si>
   <si>
     <t xml:space="preserve"> AAATCTTTCG</t>
   </si>
   <si>
-    <t>Thread-83</t>
+    <t>83</t>
   </si>
   <si>
     <t xml:space="preserve"> AGTGGGTGGA</t>
   </si>
   <si>
-    <t>Thread-65</t>
+    <t>65</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTTCAAGAT</t>
   </si>
   <si>
-    <t>Thread-23</t>
+    <t>23</t>
   </si>
   <si>
     <t xml:space="preserve"> AATTCCTCTC</t>
   </si>
   <si>
-    <t>Thread-34</t>
+    <t>34</t>
   </si>
   <si>
     <t xml:space="preserve"> GTATCTGGTT</t>
   </si>
   <si>
-    <t>Thread-71</t>
+    <t>71</t>
   </si>
   <si>
     <t xml:space="preserve"> GACCAGACCA</t>
   </si>
   <si>
-    <t>Thread-46</t>
+    <t>46</t>
   </si>
   <si>
     <t xml:space="preserve"> CGCCCCTCTG</t>
   </si>
   <si>
-    <t>Thread-32</t>
+    <t>32</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCGAAAGCC</t>
   </si>
   <si>
-    <t>Thread-19</t>
+    <t>19</t>
   </si>
   <si>
     <t xml:space="preserve"> AGCCATCATT</t>
   </si>
   <si>
-    <t>Thread-36</t>
+    <t>36</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCTGACAT</t>
   </si>
   <si>
-    <t>Thread-78</t>
+    <t>78</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGGCGTTTA</t>
   </si>
   <si>
-    <t>Thread-79</t>
+    <t>79</t>
   </si>
   <si>
     <t xml:space="preserve"> AAAACTTTCG</t>
   </si>
   <si>
-    <t>Thread-42</t>
+    <t>42</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTGGTTAA</t>
   </si>
   <si>
-    <t>Thread-49</t>
+    <t>49</t>
   </si>
   <si>
     <t xml:space="preserve"> CCCAGGTCAA</t>
   </si>
   <si>
-    <t>Thread-17</t>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve"> GGATGAACAA</t>
   </si>
   <si>
-    <t>Thread-61</t>
+    <t>61</t>
   </si>
   <si>
     <t xml:space="preserve"> CATTAGTACG</t>
   </si>
   <si>
-    <t>Thread-24</t>
+    <t>24</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGGGGCGAG</t>
   </si>
   <si>
-    <t>Thread-54</t>
+    <t>54</t>
   </si>
   <si>
     <t xml:space="preserve"> CTATTTATCC</t>
   </si>
   <si>
-    <t>Thread-92</t>
+    <t>92</t>
   </si>
   <si>
     <t xml:space="preserve"> AATAGAACAA</t>
   </si>
   <si>
-    <t>Thread-93</t>
+    <t>93</t>
   </si>
   <si>
     <t xml:space="preserve"> GTTCTGAATA</t>
   </si>
   <si>
-    <t>Thread-94</t>
+    <t>94</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGCCCCCA</t>
   </si>
   <si>
-    <t>Thread-95</t>
+    <t>95</t>
   </si>
   <si>
     <t xml:space="preserve"> AGACGGTTTA</t>
   </si>
   <si>
-    <t>Thread-4</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCATAAAAT</t>
   </si>
   <si>
-    <t>Thread-8</t>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve"> ACGAAACTAC</t>
   </si>
   <si>
-    <t>Thread-18</t>
+    <t>18</t>
   </si>
   <si>
     <t xml:space="preserve"> GAATTCGTGA</t>
   </si>
   <si>
-    <t>Thread-97</t>
+    <t>97</t>
   </si>
   <si>
     <t xml:space="preserve"> AATGTGGACA</t>
   </si>
   <si>
-    <t>Thread-98</t>
+    <t>98</t>
   </si>
   <si>
     <t xml:space="preserve"> GGATGGTATA</t>
   </si>
   <si>
-    <t>Thread-99</t>
+    <t>99</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGCGCGATT</t>
   </si>
   <si>
-    <t>Thread-86</t>
-  </si>
-  <si>
-    <t>Thread-12</t>
+    <t>86</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGTGCCTC</t>
   </si>
   <si>
-    <t>Thread-39</t>
+    <t>39</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTCAGATAG</t>
   </si>
   <si>
-    <t>Thread-50</t>
+    <t>50</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGTGGACA</t>
   </si>
   <si>
-    <t>Thread-101</t>
+    <t>101</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCCGTAATC</t>
   </si>
   <si>
-    <t>Thread-100</t>
+    <t>100</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTCAGACAG</t>
   </si>
   <si>
-    <t>Thread-91</t>
+    <t>91</t>
   </si>
   <si>
     <t xml:space="preserve"> CTAGGGCGAG</t>
   </si>
   <si>
-    <t>Thread-81</t>
+    <t>81</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGTGGCGGT</t>
   </si>
   <si>
-    <t>Thread-40</t>
+    <t>40</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGCGTAATC</t>
   </si>
   <si>
-    <t>Thread-102</t>
+    <t>102</t>
   </si>
   <si>
     <t xml:space="preserve"> GGATGGCGTA</t>
   </si>
   <si>
-    <t>Thread-104</t>
+    <t>104</t>
   </si>
   <si>
     <t xml:space="preserve"> ATGTGGTAAT</t>
   </si>
   <si>
-    <t>Thread-103</t>
+    <t>103</t>
   </si>
   <si>
     <t xml:space="preserve"> GGATGGTGGC</t>
   </si>
   <si>
-    <t>Thread-105</t>
+    <t>105</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGCTAGGAT</t>
   </si>
   <si>
-    <t>Thread-80</t>
+    <t>80</t>
   </si>
   <si>
     <t xml:space="preserve"> TTATGTGTGA</t>
   </si>
   <si>
-    <t>Thread-14</t>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCGGATCTC</t>
   </si>
   <si>
-    <t>Thread-10</t>
+    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve"> AATAGGTATA</t>
   </si>
   <si>
-    <t>Thread-107</t>
+    <t>107</t>
   </si>
   <si>
     <t xml:space="preserve"> GGTGCTGACA</t>
   </si>
   <si>
-    <t>Thread-108</t>
+    <t>108</t>
   </si>
   <si>
     <t xml:space="preserve"> CTATTCGTGC</t>
   </si>
   <si>
-    <t>Thread-109</t>
+    <t>109</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCCTAAATC</t>
   </si>
   <si>
-    <t>Thread-6</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve"> CTCGAAGGGA</t>
   </si>
   <si>
-    <t>Thread-73</t>
+    <t>73</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGCTAGGGC</t>
   </si>
   <si>
-    <t>Thread-110</t>
+    <t>110</t>
   </si>
   <si>
     <t xml:space="preserve"> GGACATCATT</t>
   </si>
   <si>
-    <t>Thread-90</t>
+    <t>90</t>
   </si>
   <si>
     <t xml:space="preserve"> GGATGGTATC</t>
   </si>
   <si>
-    <t>Thread-112</t>
+    <t>112</t>
   </si>
   <si>
     <t xml:space="preserve"> AAGCGTAGGT</t>
   </si>
   <si>
-    <t>Thread-114</t>
+    <t>114</t>
   </si>
   <si>
     <t xml:space="preserve"> TAGCGAACAC</t>
   </si>
   <si>
-    <t>Thread-115</t>
+    <t>115</t>
   </si>
   <si>
     <t xml:space="preserve"> ATCATTAATC</t>
   </si>
   <si>
-    <t>Thread-106</t>
+    <t>106</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCGGGCGAG</t>
   </si>
   <si>
-    <t>Thread-116</t>
+    <t>116</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGTGGCGTC</t>
   </si>
   <si>
-    <t>Thread-96</t>
-  </si>
-  <si>
-    <t>Thread-111</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
   <si>
     <t xml:space="preserve"> GTAGTGCCTC</t>
   </si>
   <si>
-    <t>Thread-113</t>
+    <t>113</t>
   </si>
   <si>
     <t xml:space="preserve"> GAGGTGCCTC</t>
   </si>
   <si>
-    <t>Thread-118</t>
+    <t>118</t>
   </si>
   <si>
     <t xml:space="preserve"> GGGTGGCGGC</t>
   </si>
   <si>
-    <t>Thread-119</t>
+    <t>119</t>
   </si>
   <si>
     <t xml:space="preserve"> TTTCAGAATC</t>
   </si>
   <si>
-    <t>Thread-120</t>
+    <t>120</t>
   </si>
   <si>
     <t xml:space="preserve"> GGCGGGCCTC</t>
   </si>
   <si>
-    <t>Thread-117</t>
-  </si>
-  <si>
-    <t>Thread-121</t>
+    <t>117</t>
+  </si>
+  <si>
+    <t>121</t>
   </si>
 </sst>
 </file>
